--- a/src/assets/upload_format.xlsx
+++ b/src/assets/upload_format.xlsx
@@ -1,46 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeropay\Desktop\dev\closeOpen\src\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE5BD3E-628A-4BEF-AA86-54D3C390D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>가맹점관리번호</t>
   </si>
   <si>
     <t>사업자등록번호</t>
   </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5978200266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Helvetica Neue"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -82,46 +98,100 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office-Design">
       <a:dk1>
@@ -247,7 +317,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -256,7 +326,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -265,7 +335,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,7 +409,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -347,7 +417,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -366,7 +436,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -396,7 +466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -422,7 +492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -448,7 +518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -474,7 +544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -500,7 +570,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -526,7 +596,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -578,7 +648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -617,9 +687,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -634,7 +710,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -642,7 +718,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -661,7 +737,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +763,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +789,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +815,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +841,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -817,7 +893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -843,7 +919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -908,9 +984,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -924,7 +1006,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -943,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1129,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1155,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1181,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1194,83 +1276,98 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.85" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5078" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.9766" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.6" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+    <row r="2" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" ht="14.6" customHeight="1">
+    <row r="3" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" ht="14.6" customHeight="1">
+    <row r="4" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" ht="14.6" customHeight="1">
+    <row r="5" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" ht="14.6" customHeight="1">
+    <row r="6" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" ht="14.6" customHeight="1">
+    <row r="7" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" ht="14.6" customHeight="1">
+    <row r="8" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" ht="14.6" customHeight="1">
+    <row r="9" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" ht="14.6" customHeight="1">
+    <row r="10" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" ht="14.6" customHeight="1">
+    <row r="11" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
